--- a/Web/wwwroot/UploadExcel/91CCC410.xlsx
+++ b/Web/wwwroot/UploadExcel/91CCC410.xlsx
@@ -10265,37 +10265,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG805"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="V118" workbookViewId="0">
-      <selection activeCell="AA135" sqref="AA135"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="O782" workbookViewId="0">
+      <selection activeCell="V454" sqref="V454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="32.21875" style="2" customWidth="1"/>
     <col min="13" max="13" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.44140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.44140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="20.21875" style="2" customWidth="1"/>
     <col min="23" max="23" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.5546875" style="2" customWidth="1"/>
     <col min="25" max="25" width="96" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.77734375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="29.6640625" style="10" customWidth="1"/>
     <col min="28" max="28" width="27" style="2" customWidth="1"/>
     <col min="29" max="29" width="33.21875" style="2" customWidth="1"/>
     <col min="30" max="30" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
